--- a/projetS5/public/INFO/2018-2019/INFO2/S4/IPI/UE41/CompAlgo.xlsx
+++ b/projetS5/public/INFO/2018-2019/INFO2/S4/IPI/UE41/CompAlgo.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdcde\Music\PROJET S5 LPDIOC GESTION ETUDIANT\GestionEtudiants2018\projetS5\public\INFO\2018-2019\INFO2\S4\IPI\UE41\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B829CD66-276E-41E6-A3F4-F592F14156D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CompAlgo" sheetId="1" r:id="rId4"/>
+    <sheet name="CompAlgo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="114">
   <si>
     <t>Numéro</t>
   </si>
@@ -362,14 +367,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -380,28 +380,37 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -691,26 +700,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -730,9 +736,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>20150926</v>
+        <v>20170926</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -747,9 +753,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>20150927</v>
+        <v>20170927</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -764,9 +770,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>20150928</v>
+        <v>20170928</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -781,9 +787,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>20150929</v>
+        <v>20170929</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -798,9 +804,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>20150930</v>
+        <v>20170930</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -815,9 +821,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>20150931</v>
+        <v>20170931</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -832,9 +838,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>20150932</v>
+        <v>20170932</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -849,9 +855,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>20150933</v>
+        <v>20170933</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -866,9 +872,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>20150934</v>
+        <v>20170934</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -883,9 +889,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>20150935</v>
+        <v>20170935</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
@@ -900,9 +906,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>20150936</v>
+        <v>20170936</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -917,9 +923,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>20150937</v>
+        <v>20170937</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -934,9 +940,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>20150938</v>
+        <v>20170938</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -951,9 +957,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>20150939</v>
+        <v>20170939</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -968,9 +974,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>20150940</v>
+        <v>20170940</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -985,9 +991,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>20150941</v>
+        <v>20170941</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
@@ -1002,9 +1008,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>20150942</v>
+        <v>20170942</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
@@ -1019,9 +1025,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>20150943</v>
+        <v>20170943</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
@@ -1036,9 +1042,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20150944</v>
+        <v>20170944</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
@@ -1053,9 +1059,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>20150945</v>
+        <v>20170945</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
@@ -1070,9 +1076,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>20150946</v>
+        <v>20170946</v>
       </c>
       <c r="B23" t="s">
         <v>47</v>
@@ -1087,9 +1093,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>20150947</v>
+        <v>20170947</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
@@ -1104,9 +1110,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>20150948</v>
+        <v>20170948</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
@@ -1121,9 +1127,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>20150949</v>
+        <v>20170949</v>
       </c>
       <c r="B26" t="s">
         <v>52</v>
@@ -1138,9 +1144,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>20150950</v>
+        <v>20170950</v>
       </c>
       <c r="B27" t="s">
         <v>54</v>
@@ -1155,9 +1161,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>20150951</v>
+        <v>20170951</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
@@ -1172,9 +1178,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>20150952</v>
+        <v>20170952</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
@@ -1189,9 +1195,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>20150953</v>
+        <v>20170953</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
@@ -1206,9 +1212,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>20150954</v>
+        <v>20170954</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
@@ -1223,9 +1229,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>20150955</v>
+        <v>20170955</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
@@ -1240,9 +1246,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>20150956</v>
+        <v>20170956</v>
       </c>
       <c r="B33" t="s">
         <v>63</v>
@@ -1257,9 +1263,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>20150957</v>
+        <v>20170957</v>
       </c>
       <c r="B34" t="s">
         <v>65</v>
@@ -1274,9 +1280,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>20150958</v>
+        <v>20170958</v>
       </c>
       <c r="B35" t="s">
         <v>67</v>
@@ -1291,9 +1297,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>20150959</v>
+        <v>20170959</v>
       </c>
       <c r="B36" t="s">
         <v>68</v>
@@ -1308,9 +1314,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>20150960</v>
+        <v>20170960</v>
       </c>
       <c r="B37" t="s">
         <v>70</v>
@@ -1325,9 +1331,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>20150961</v>
+        <v>20170961</v>
       </c>
       <c r="B38" t="s">
         <v>72</v>
@@ -1342,9 +1348,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>20150962</v>
+        <v>20170962</v>
       </c>
       <c r="B39" t="s">
         <v>74</v>
@@ -1359,9 +1365,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>20150963</v>
+        <v>20170963</v>
       </c>
       <c r="B40" t="s">
         <v>75</v>
@@ -1376,9 +1382,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>20150964</v>
+        <v>20170964</v>
       </c>
       <c r="B41" t="s">
         <v>77</v>
@@ -1393,9 +1399,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>20150965</v>
+        <v>20170965</v>
       </c>
       <c r="B42" t="s">
         <v>78</v>
@@ -1410,9 +1416,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>20150966</v>
+        <v>20170966</v>
       </c>
       <c r="B43" t="s">
         <v>80</v>
@@ -1427,9 +1433,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>20150967</v>
+        <v>20170967</v>
       </c>
       <c r="B44" t="s">
         <v>81</v>
@@ -1444,9 +1450,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>20150968</v>
+        <v>20170968</v>
       </c>
       <c r="B45" t="s">
         <v>83</v>
@@ -1461,9 +1467,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>20150969</v>
+        <v>20170969</v>
       </c>
       <c r="B46" t="s">
         <v>85</v>
@@ -1478,9 +1484,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>20150970</v>
+        <v>20170970</v>
       </c>
       <c r="B47" t="s">
         <v>86</v>
@@ -1495,9 +1501,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>20150971</v>
+        <v>20170971</v>
       </c>
       <c r="B48" t="s">
         <v>88</v>
@@ -1512,9 +1518,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>20150972</v>
+        <v>20170972</v>
       </c>
       <c r="B49" t="s">
         <v>90</v>
@@ -1529,9 +1535,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>20150973</v>
+        <v>20170973</v>
       </c>
       <c r="B50" t="s">
         <v>92</v>
@@ -1546,9 +1552,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>20150974</v>
+        <v>20170974</v>
       </c>
       <c r="B51" t="s">
         <v>93</v>
@@ -1563,9 +1569,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>20150975</v>
+        <v>20170975</v>
       </c>
       <c r="B52" t="s">
         <v>95</v>
@@ -1580,9 +1586,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>20150976</v>
+        <v>20170976</v>
       </c>
       <c r="B53" t="s">
         <v>96</v>
@@ -1597,9 +1603,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>20150977</v>
+        <v>20170977</v>
       </c>
       <c r="B54" t="s">
         <v>98</v>
@@ -1614,9 +1620,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>20150978</v>
+        <v>20170978</v>
       </c>
       <c r="B55" t="s">
         <v>99</v>
@@ -1631,9 +1637,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>20150979</v>
+        <v>20170979</v>
       </c>
       <c r="B56" t="s">
         <v>101</v>
@@ -1648,9 +1654,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>20150980</v>
+        <v>20170980</v>
       </c>
       <c r="B57" t="s">
         <v>102</v>
@@ -1665,9 +1671,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>20150981</v>
+        <v>20170981</v>
       </c>
       <c r="B58" t="s">
         <v>104</v>
@@ -1682,9 +1688,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>20150982</v>
+        <v>20170982</v>
       </c>
       <c r="B59" t="s">
         <v>105</v>
@@ -1699,9 +1705,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>20150983</v>
+        <v>20170983</v>
       </c>
       <c r="B60" t="s">
         <v>107</v>
@@ -1716,9 +1722,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>20150984</v>
+        <v>20170984</v>
       </c>
       <c r="B61" t="s">
         <v>108</v>
@@ -1733,9 +1739,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>20150985</v>
+        <v>20170985</v>
       </c>
       <c r="B62" t="s">
         <v>110</v>
@@ -1750,9 +1756,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>20150986</v>
+        <v>20170986</v>
       </c>
       <c r="B63" t="s">
         <v>112</v>
@@ -1768,17 +1774,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
--- a/projetS5/public/INFO/2018-2019/INFO2/S4/IPI/UE41/CompAlgo.xlsx
+++ b/projetS5/public/INFO/2018-2019/INFO2/S4/IPI/UE41/CompAlgo.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdcde\Music\PROJET S5 LPDIOC GESTION ETUDIANT\GestionEtudiants2018\projetS5\public\INFO\2018-2019\INFO2\S4\IPI\UE41\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B829CD66-276E-41E6-A3F4-F592F14156D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="CompAlgo" sheetId="1" r:id="rId1"/>
+    <sheet name="CompAlgo" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>Numéro</t>
   </si>
@@ -367,9 +362,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -380,37 +380,28 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -700,23 +691,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C63"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="25.85083" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -736,9 +730,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3">
-        <v>20170926</v>
+        <v>20150926</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -753,9 +747,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4">
-        <v>20170927</v>
+        <v>20150927</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -770,9 +764,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5">
-        <v>20170928</v>
+        <v>20150928</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -787,9 +781,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6">
-        <v>20170929</v>
+        <v>20150929</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -804,9 +798,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7">
-        <v>20170930</v>
+        <v>20150930</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -821,9 +815,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8">
-        <v>20170931</v>
+        <v>20150931</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -838,9 +832,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9">
-        <v>20170932</v>
+        <v>20150932</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -855,9 +849,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10">
-        <v>20170933</v>
+        <v>20150933</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -872,9 +866,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11">
-        <v>20170934</v>
+        <v>20150934</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -889,9 +883,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12">
-        <v>20170935</v>
+        <v>20150935</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
@@ -906,9 +900,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13">
-        <v>20170936</v>
+        <v>20150936</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -923,9 +917,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14">
-        <v>20170937</v>
+        <v>20150937</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -940,9 +934,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15">
-        <v>20170938</v>
+        <v>20150938</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -957,9 +951,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16">
-        <v>20170939</v>
+        <v>20150939</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -974,9 +968,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17">
-        <v>20170940</v>
+        <v>20150940</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -991,9 +985,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18">
-        <v>20170941</v>
+        <v>20150941</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
@@ -1008,9 +1002,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19">
-        <v>20170942</v>
+        <v>20150942</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
@@ -1025,9 +1019,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20">
-        <v>20170943</v>
+        <v>20150943</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
@@ -1042,9 +1036,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21">
-        <v>20170944</v>
+        <v>20150944</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
@@ -1059,9 +1053,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22">
-        <v>20170945</v>
+        <v>20150945</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
@@ -1076,9 +1070,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23">
-        <v>20170946</v>
+        <v>20150946</v>
       </c>
       <c r="B23" t="s">
         <v>47</v>
@@ -1093,9 +1087,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24">
-        <v>20170947</v>
+        <v>20150947</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
@@ -1110,9 +1104,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25">
-        <v>20170948</v>
+        <v>20150948</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
@@ -1127,9 +1121,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26">
-        <v>20170949</v>
+        <v>20150949</v>
       </c>
       <c r="B26" t="s">
         <v>52</v>
@@ -1144,9 +1138,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27">
-        <v>20170950</v>
+        <v>20150950</v>
       </c>
       <c r="B27" t="s">
         <v>54</v>
@@ -1161,9 +1155,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28">
-        <v>20170951</v>
+        <v>20150951</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
@@ -1178,9 +1172,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29">
-        <v>20170952</v>
+        <v>20150952</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
@@ -1195,9 +1189,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30">
-        <v>20170953</v>
+        <v>20150953</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
@@ -1212,9 +1206,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31">
-        <v>20170954</v>
+        <v>20150954</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
@@ -1229,9 +1223,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32">
-        <v>20170955</v>
+        <v>20150955</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
@@ -1246,9 +1240,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33">
-        <v>20170956</v>
+        <v>20150956</v>
       </c>
       <c r="B33" t="s">
         <v>63</v>
@@ -1263,9 +1257,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34">
-        <v>20170957</v>
+        <v>20150957</v>
       </c>
       <c r="B34" t="s">
         <v>65</v>
@@ -1280,9 +1274,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35">
-        <v>20170958</v>
+        <v>20150958</v>
       </c>
       <c r="B35" t="s">
         <v>67</v>
@@ -1297,9 +1291,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36">
-        <v>20170959</v>
+        <v>20150959</v>
       </c>
       <c r="B36" t="s">
         <v>68</v>
@@ -1314,9 +1308,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37">
-        <v>20170960</v>
+        <v>20150960</v>
       </c>
       <c r="B37" t="s">
         <v>70</v>
@@ -1331,9 +1325,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38">
-        <v>20170961</v>
+        <v>20150961</v>
       </c>
       <c r="B38" t="s">
         <v>72</v>
@@ -1348,9 +1342,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39">
-        <v>20170962</v>
+        <v>20150962</v>
       </c>
       <c r="B39" t="s">
         <v>74</v>
@@ -1365,9 +1359,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40">
-        <v>20170963</v>
+        <v>20150963</v>
       </c>
       <c r="B40" t="s">
         <v>75</v>
@@ -1382,9 +1376,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41">
-        <v>20170964</v>
+        <v>20150964</v>
       </c>
       <c r="B41" t="s">
         <v>77</v>
@@ -1399,9 +1393,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42">
-        <v>20170965</v>
+        <v>20150965</v>
       </c>
       <c r="B42" t="s">
         <v>78</v>
@@ -1416,9 +1410,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43">
-        <v>20170966</v>
+        <v>20150966</v>
       </c>
       <c r="B43" t="s">
         <v>80</v>
@@ -1433,9 +1427,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44">
-        <v>20170967</v>
+        <v>20150967</v>
       </c>
       <c r="B44" t="s">
         <v>81</v>
@@ -1450,9 +1444,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45">
-        <v>20170968</v>
+        <v>20150968</v>
       </c>
       <c r="B45" t="s">
         <v>83</v>
@@ -1467,9 +1461,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46">
-        <v>20170969</v>
+        <v>20150969</v>
       </c>
       <c r="B46" t="s">
         <v>85</v>
@@ -1484,9 +1478,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47">
-        <v>20170970</v>
+        <v>20150970</v>
       </c>
       <c r="B47" t="s">
         <v>86</v>
@@ -1501,9 +1495,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48">
-        <v>20170971</v>
+        <v>20150971</v>
       </c>
       <c r="B48" t="s">
         <v>88</v>
@@ -1518,9 +1512,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49">
-        <v>20170972</v>
+        <v>20150972</v>
       </c>
       <c r="B49" t="s">
         <v>90</v>
@@ -1535,9 +1529,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50">
-        <v>20170973</v>
+        <v>20150973</v>
       </c>
       <c r="B50" t="s">
         <v>92</v>
@@ -1552,9 +1546,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51">
-        <v>20170974</v>
+        <v>20150974</v>
       </c>
       <c r="B51" t="s">
         <v>93</v>
@@ -1569,9 +1563,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52">
-        <v>20170975</v>
+        <v>20150975</v>
       </c>
       <c r="B52" t="s">
         <v>95</v>
@@ -1586,9 +1580,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53">
-        <v>20170976</v>
+        <v>20150976</v>
       </c>
       <c r="B53" t="s">
         <v>96</v>
@@ -1603,9 +1597,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54">
-        <v>20170977</v>
+        <v>20150977</v>
       </c>
       <c r="B54" t="s">
         <v>98</v>
@@ -1620,9 +1614,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55">
-        <v>20170978</v>
+        <v>20150978</v>
       </c>
       <c r="B55" t="s">
         <v>99</v>
@@ -1637,9 +1631,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56">
-        <v>20170979</v>
+        <v>20150979</v>
       </c>
       <c r="B56" t="s">
         <v>101</v>
@@ -1654,9 +1648,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57">
-        <v>20170980</v>
+        <v>20150980</v>
       </c>
       <c r="B57" t="s">
         <v>102</v>
@@ -1671,9 +1665,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58">
-        <v>20170981</v>
+        <v>20150981</v>
       </c>
       <c r="B58" t="s">
         <v>104</v>
@@ -1688,9 +1682,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59">
-        <v>20170982</v>
+        <v>20150982</v>
       </c>
       <c r="B59" t="s">
         <v>105</v>
@@ -1705,9 +1699,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60">
-        <v>20170983</v>
+        <v>20150983</v>
       </c>
       <c r="B60" t="s">
         <v>107</v>
@@ -1722,9 +1716,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61">
-        <v>20170984</v>
+        <v>20150984</v>
       </c>
       <c r="B61" t="s">
         <v>108</v>
@@ -1739,9 +1733,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62">
-        <v>20170985</v>
+        <v>20150985</v>
       </c>
       <c r="B62" t="s">
         <v>110</v>
@@ -1756,9 +1750,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63">
-        <v>20170986</v>
+        <v>20150986</v>
       </c>
       <c r="B63" t="s">
         <v>112</v>
@@ -1774,7 +1768,17 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>